--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="779">
   <si>
     <t>KTCh</t>
   </si>
@@ -2391,6 +2391,24 @@
   <si>
     <t>Icon_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPOTV ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPOTV ON2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑엔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.imgur.com/Y3eYOc2.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/jbdurz4.png</t>
   </si>
 </sst>
 </file>
@@ -2734,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="G339" sqref="G339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12081,7 +12099,7 @@
       </c>
       <c r="C213" t="str">
         <f>IF(ISNA(VLOOKUP($A213,KT!$A:$B,2,FALSE)),"",VLOOKUP($A213,KT!$A:$B,2,FALSE))</f>
-        <v>쇼핑엔T</v>
+        <v>쇼핑엔티</v>
       </c>
       <c r="D213">
         <f>IF(ISNA(VLOOKUP($A213,KT!$A:$C,3,FALSE)),"",VLOOKUP($A213,KT!$A:$C,3,FALSE))</f>
@@ -16512,6 +16530,94 @@
         <v>260</v>
       </c>
       <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>414</v>
+      </c>
+      <c r="B314" t="s">
+        <v>774</v>
+      </c>
+      <c r="C314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,KT!$A:$B,2,FALSE)),"",VLOOKUP($A314,KT!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,KT!$A:$C,3,FALSE)),"",VLOOKUP($A314,KT!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,LG!$A:$B,2,FALSE)),"",VLOOKUP($A314,LG!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,LG!$A:$C,3,FALSE)),"",VLOOKUP($A314,LG!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G314" t="str">
+        <f>IF(ISNA(VLOOKUP($A314,SK!$A:$B,2,FALSE)),"",VLOOKUP($A314,SK!$A:$B,2,FALSE))</f>
+        <v>SPOTV ON</v>
+      </c>
+      <c r="H314">
+        <f>IF(ISNA(VLOOKUP($A314,SK!$A:$C,3,FALSE)),"",VLOOKUP($A314,SK!$A:$C,3,FALSE))</f>
+        <v>118</v>
+      </c>
+      <c r="I314" t="s">
+        <v>777</v>
+      </c>
+      <c r="J314" t="s">
+        <v>485</v>
+      </c>
+      <c r="K314">
+        <v>136</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>415</v>
+      </c>
+      <c r="B315" t="s">
+        <v>775</v>
+      </c>
+      <c r="C315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,KT!$A:$B,2,FALSE)),"",VLOOKUP($A315,KT!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,KT!$A:$C,3,FALSE)),"",VLOOKUP($A315,KT!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,LG!$A:$B,2,FALSE)),"",VLOOKUP($A315,LG!$A:$B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,LG!$A:$C,3,FALSE)),"",VLOOKUP($A315,LG!$A:$C,3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G315" t="str">
+        <f>IF(ISNA(VLOOKUP($A315,SK!$A:$B,2,FALSE)),"",VLOOKUP($A315,SK!$A:$B,2,FALSE))</f>
+        <v>SPOTV ON2</v>
+      </c>
+      <c r="H315">
+        <f>IF(ISNA(VLOOKUP($A315,SK!$A:$C,3,FALSE)),"",VLOOKUP($A315,SK!$A:$C,3,FALSE))</f>
+        <v>119</v>
+      </c>
+      <c r="I315" t="s">
+        <v>778</v>
+      </c>
+      <c r="J315" t="s">
+        <v>485</v>
+      </c>
+      <c r="K315">
+        <v>137</v>
+      </c>
+      <c r="L315">
         <v>1</v>
       </c>
     </row>
@@ -16531,8 +16637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244:B289"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A199" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16553,3209 +16659,3209 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C5">
-        <v>133</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="C10">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="C11">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="C13">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C16">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C18">
-        <v>196</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="C19">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="C20">
-        <v>233</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="C21">
-        <v>235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="C23">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="C24">
-        <v>238</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="C25">
-        <v>280</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="C26">
-        <v>237</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C28">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="C29">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C33">
-        <v>126</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>44</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="C34">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="C35">
-        <v>197</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="C36">
-        <v>191</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>48</v>
+        <v>407</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="C37">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C38">
-        <v>236</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="C40">
-        <v>201</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="C41">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="C42">
-        <v>257</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="C44">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>57</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="C45">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="C46">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="C47">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C49">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C51">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="C52">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>70</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="C53">
-        <v>173</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="C54">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="C56">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="C57">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C58">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="C60">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C61">
-        <v>234</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C64">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C65">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C66">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C67">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C68">
-        <v>275</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="C69">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C73">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="C75">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C76">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>776</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C78">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C81">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C82">
-        <v>281</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C83">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="C87">
-        <v>153</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C88">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C89">
-        <v>230</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="C90">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="C91">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C93">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C96">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>164</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C98">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C99">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C100">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C102">
-        <v>272</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C103">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C104">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C105">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C106">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C107">
-        <v>170</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C108">
-        <v>168</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>199</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C110">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="C111">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C112">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="C114">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C115">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C116">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C118">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C119">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C120">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C121">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C122">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="C123">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C125">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="C126">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="C127">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="C128">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="C129">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C130">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C131">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C132">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C134">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C135">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C136">
-        <v>165</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C137">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C138">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C140">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C141">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C143">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C144">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="C145">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C146">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C147">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C148">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C149">
-        <v>261</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C150">
-        <v>267</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C151">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="C152">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C154">
-        <v>214</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="C155">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C156">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C158">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C159">
-        <v>251</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>198</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="C162">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="B163" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C163">
-        <v>245</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C164">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="C165">
-        <v>284</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C166">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C167">
-        <v>24</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C168">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
       <c r="C169">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="C170">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="B171" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="C171">
-        <v>260</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="C172">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C173">
-        <v>285</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C174">
-        <v>283</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="C175">
-        <v>256</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C176">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="C178">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="C180">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="C181">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C182">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C183">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C184">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="C186">
-        <v>276</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C187">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="C188">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C189">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="C190">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C191">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="C192">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="B193" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="C193">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="B194" t="s">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="C194">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C195">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C196">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="C197">
-        <v>282</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="C198">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="C199">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="B200" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="C200">
-        <v>255</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="C201">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="B202" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="C202">
-        <v>28</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="B203" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C203">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C204">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="B205" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C205">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="B206" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="C206">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="C207">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="B208" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="C208">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="C209">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="C210">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="C211">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="C212">
-        <v>277</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="C213">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B214" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C214">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="C215">
-        <v>279</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="B216" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="C216">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C217">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="B218" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="C218">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="C219">
-        <v>250</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C220">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B221" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C221">
-        <v>79</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C222">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B223" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C223">
-        <v>137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C224">
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="B225" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C225">
-        <v>67</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="B226" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="C226">
-        <v>270</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="B227" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="C227">
-        <v>85</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="C228">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="C229">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="B230" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="C230">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="C231">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="B233" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="C233">
-        <v>129</v>
+        <v>198</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="C234">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="C235">
-        <v>259</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="C236">
-        <v>252</v>
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B237" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C237">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="B238" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C238">
-        <v>269</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="B239" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C239">
-        <v>271</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C240">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="B241" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="C241">
-        <v>33</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C242">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="C243">
-        <v>166</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="B245" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="C247">
-        <v>5</v>
+        <v>232</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="B249" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="C249">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>369</v>
+        <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="C250">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>370</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="B252" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="C252">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="C253">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="B255" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="C255">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="B256" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C256">
-        <v>9</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="C257">
-        <v>11</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="B258" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C258">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C259">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="B260" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="C260">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="B261" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C261">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="B262" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="C262">
-        <v>9</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B263" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C263">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="B264" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C264">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>384</v>
+        <v>227</v>
       </c>
       <c r="B265" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="C265">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>385</v>
+        <v>54</v>
       </c>
       <c r="B266" t="s">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="C266">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="C267">
-        <v>9</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C268">
-        <v>9</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="B269" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="C269">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>389</v>
+        <v>193</v>
       </c>
       <c r="B270" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="C270">
-        <v>11</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="B271" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="C271">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>391</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="C272">
-        <v>11</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>392</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="C273">
-        <v>9</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="C274">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="B275" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="C275">
-        <v>9</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>395</v>
+        <v>194</v>
       </c>
       <c r="B276" t="s">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="C276">
-        <v>11</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>396</v>
+        <v>282</v>
       </c>
       <c r="B277" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="C277">
-        <v>9</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C278">
-        <v>11</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="B279" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C279">
-        <v>9</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C280">
-        <v>11</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="B281" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="C281">
-        <v>9</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="C282">
-        <v>9</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="C283">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="C284">
-        <v>9</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="C285">
-        <v>11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="B286" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="C287">
-        <v>11</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="C288">
-        <v>9</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>408</v>
+        <v>254</v>
       </c>
       <c r="B289" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="C289">
-        <v>11</v>
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>409</v>
+        <v>226</v>
       </c>
       <c r="B290" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="C290">
-        <v>102</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="B291" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C291">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>411</v>
+        <v>225</v>
       </c>
       <c r="B292" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="C292">
-        <v>194</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1">
     <sortState ref="A2:C292">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:C292">
@@ -19770,8 +19876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B46" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22292,10 +22398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22327,178 +22433,178 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1">
-        <v>234</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>106</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>424</v>
       </c>
       <c r="C8" s="1">
-        <v>195</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>265</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C11" s="1">
-        <v>306</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C12" s="1">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C13" s="1">
-        <v>162</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="C14" s="1">
-        <v>305</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="C15" s="1">
-        <v>237</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="C16" s="1">
-        <v>86</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="C17" s="1">
-        <v>51</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -22525,2254 +22631,2254 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
-        <v>62</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1">
-        <v>302</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>411</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C24" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>478</v>
       </c>
       <c r="C25" s="1">
-        <v>163</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="C29" s="1">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
-        <v>235</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>463</v>
       </c>
       <c r="C33" s="1">
-        <v>159</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C35" s="1">
-        <v>301</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="C36" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
-        <v>304</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>409</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="C39" s="1">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="C40" s="1">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>453</v>
       </c>
       <c r="C41" s="1">
-        <v>13</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1">
-        <v>203</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>453</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1">
-        <v>204</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>367</v>
       </c>
       <c r="C44" s="1">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="C46" s="1">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C49" s="1">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
       <c r="C51" s="1">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>363</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="C59" s="1">
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C61" s="1">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="C62" s="1">
-        <v>303</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
       <c r="C63" s="1">
-        <v>29</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="C64" s="1">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C65" s="1">
-        <v>217</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
-        <v>479</v>
-      </c>
       <c r="C66" s="1">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C67" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
       <c r="C68" s="1">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="C70" s="1">
-        <v>236</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C71" s="1">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="C72" s="1">
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
+        <v>460</v>
+      </c>
+      <c r="C73" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="C74" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C75" s="1">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="C76" s="1">
-        <v>82</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C77" s="1">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="C78" s="1">
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>460</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>366</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>457</v>
+        <v>107</v>
       </c>
       <c r="C81" s="1">
-        <v>80</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>411</v>
+        <v>108</v>
       </c>
       <c r="C82" s="1">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1">
-        <v>214</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="C84" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C85" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C87" s="1">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>412</v>
+        <v>114</v>
       </c>
       <c r="C88" s="1">
-        <v>193</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
+        <v>444</v>
+      </c>
+      <c r="C89" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C90" s="1">
-        <v>290</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>426</v>
       </c>
       <c r="C91" s="1">
-        <v>241</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C92" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="C93" s="1">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="C94" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="C95" s="1">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>469</v>
       </c>
       <c r="C96" s="1">
-        <v>28</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="C97" s="1">
-        <v>231</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
         <v>125</v>
       </c>
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
       <c r="C98" s="1">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C99" s="1">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>410</v>
       </c>
       <c r="C100" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="C101" s="1">
-        <v>32</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
         <v>129</v>
       </c>
-      <c r="B102" t="s">
-        <v>118</v>
-      </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1">
-        <v>247</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="C104" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>132</v>
       </c>
       <c r="C105" s="1">
-        <v>152</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="C106" s="1">
-        <v>263</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C107" s="1">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1">
-        <v>260</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>136</v>
       </c>
       <c r="C109" s="1">
-        <v>278</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C110" s="1">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="C111" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C112" s="1">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="C113" s="1">
-        <v>14</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C114" s="1">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C115" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B116" t="s">
-        <v>433</v>
+        <v>144</v>
       </c>
       <c r="C116" s="1">
-        <v>219</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>458</v>
       </c>
       <c r="C117" s="1">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="C118" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>429</v>
+        <v>147</v>
       </c>
       <c r="C119" s="1">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C120" s="1">
-        <v>245</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="C121" s="1">
-        <v>292</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="C122" s="1">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>427</v>
       </c>
       <c r="C123" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C124" s="1">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="C125" s="1">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="C126" s="1">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C127" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="C129" s="1">
-        <v>56</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>165</v>
       </c>
       <c r="C130" s="1">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="C131" s="1">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="C132" s="1">
-        <v>125</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C133" s="1">
-        <v>246</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="C134" s="1">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="C135" s="1">
-        <v>137</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C136" s="1">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>449</v>
       </c>
       <c r="C137" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>420</v>
       </c>
       <c r="C138" s="1">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
       <c r="C139" s="1">
-        <v>308</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="C140" s="1">
-        <v>60</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="C141" s="1">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142">
-        <v>5</v>
+        <v>181</v>
+      </c>
+      <c r="C142" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>422</v>
       </c>
       <c r="C143" s="1">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C144" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
-      </c>
-      <c r="C145">
-        <v>5</v>
+        <v>344</v>
+      </c>
+      <c r="C145" s="1">
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C146" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>472</v>
+        <v>186</v>
       </c>
       <c r="C147" s="1">
-        <v>279</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>187</v>
       </c>
       <c r="C148" s="1">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>473</v>
       </c>
       <c r="C149" s="1">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C150" s="1">
-        <v>19</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
-      </c>
-      <c r="C151">
-        <v>5</v>
+        <v>380</v>
+      </c>
+      <c r="C151" s="1">
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>480</v>
+        <v>195</v>
       </c>
       <c r="C152" s="1">
-        <v>71</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>481</v>
+        <v>196</v>
       </c>
       <c r="C153" s="1">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>478</v>
+        <v>197</v>
       </c>
       <c r="C154" s="1">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
-        <v>422</v>
+        <v>198</v>
       </c>
       <c r="C155" s="1">
-        <v>322</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>456</v>
+        <v>199</v>
       </c>
       <c r="C156" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C157" s="1">
-        <v>85</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="C158" s="1">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>203</v>
       </c>
       <c r="C159" s="1">
-        <v>157</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C160" s="1">
-        <v>262</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="C161" s="1">
-        <v>307</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162">
-        <v>9</v>
+        <v>207</v>
+      </c>
+      <c r="C162" s="1">
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
+        <v>208</v>
+      </c>
+      <c r="C163" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="B164" t="s">
-        <v>280</v>
-      </c>
-      <c r="C164">
-        <v>9</v>
+        <v>210</v>
+      </c>
+      <c r="C164" s="1">
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="B165" t="s">
-        <v>281</v>
-      </c>
-      <c r="C165">
-        <v>9</v>
+        <v>213</v>
+      </c>
+      <c r="C165" s="1">
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
-        <v>282</v>
-      </c>
-      <c r="C166">
-        <v>11</v>
+        <v>214</v>
+      </c>
+      <c r="C166" s="1">
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C167" s="1">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
-        <v>283</v>
-      </c>
-      <c r="C168">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="C168" s="1">
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>378</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
-        <v>284</v>
-      </c>
-      <c r="C169">
-        <v>11</v>
+        <v>219</v>
+      </c>
+      <c r="C169" s="1">
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
-        <v>285</v>
-      </c>
-      <c r="C170">
-        <v>9</v>
+        <v>455</v>
+      </c>
+      <c r="C170" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
-      </c>
-      <c r="C171">
-        <v>11</v>
+        <v>221</v>
+      </c>
+      <c r="C171" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="C172" s="1">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C173" s="1">
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C174" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C175" s="1">
-        <v>38</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C176" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C177" s="1">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B178" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="C178" s="1">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="C179" s="1">
-        <v>10</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="C180" s="1">
-        <v>267</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C181" s="1">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C182" s="1">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="B183" t="s">
-        <v>287</v>
-      </c>
-      <c r="C183">
-        <v>9</v>
+        <v>416</v>
+      </c>
+      <c r="C183" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>288</v>
-      </c>
-      <c r="C184">
-        <v>11</v>
+        <v>430</v>
+      </c>
+      <c r="C184" s="1">
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C185" s="1">
-        <v>321</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="B186" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C186" s="1">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>414</v>
       </c>
       <c r="C187" s="1">
-        <v>293</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="C188" s="1">
-        <v>175</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189">
-        <v>9</v>
+        <v>247</v>
+      </c>
+      <c r="C189" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>290</v>
-      </c>
-      <c r="C190">
-        <v>11</v>
+        <v>248</v>
+      </c>
+      <c r="C190" s="1">
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="C191" s="1">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
-        <v>291</v>
-      </c>
-      <c r="C192">
-        <v>11</v>
+        <v>250</v>
+      </c>
+      <c r="C192" s="1">
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B193" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="C193" s="1">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="C194" s="1">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="B195" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C195" s="1">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B196" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="C196" s="1">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>386</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>292</v>
-      </c>
-      <c r="C197">
-        <v>9</v>
+        <v>255</v>
+      </c>
+      <c r="C197" s="1">
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C198" s="1">
-        <v>22</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>257</v>
       </c>
       <c r="C199" s="1">
-        <v>270</v>
+        <v>138</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C200" s="1">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
       <c r="C201" s="1">
-        <v>233</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>225</v>
+        <v>454</v>
       </c>
       <c r="C202" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
-        <v>293</v>
-      </c>
-      <c r="C203">
-        <v>9</v>
+        <v>261</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>294</v>
-      </c>
-      <c r="C204">
-        <v>11</v>
+        <v>262</v>
+      </c>
+      <c r="C204" s="1">
+        <v>276</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="C205" s="1">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="C206" s="1">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
-        <v>226</v>
+        <v>480</v>
       </c>
       <c r="C207" s="1">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="C208" s="1">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B209" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="B210" t="s">
-        <v>227</v>
-      </c>
-      <c r="C210" s="1">
-        <v>23</v>
+        <v>270</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="B211" t="s">
-        <v>132</v>
-      </c>
-      <c r="C211" s="1">
-        <v>84</v>
+        <v>271</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C212">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="B214" t="s">
-        <v>344</v>
-      </c>
-      <c r="C214" s="1">
-        <v>309</v>
+        <v>274</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B215" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C216">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s">
-        <v>229</v>
-      </c>
-      <c r="C217" s="1">
-        <v>155</v>
+        <v>277</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="B218" t="s">
-        <v>231</v>
-      </c>
-      <c r="C218" s="1">
-        <v>61</v>
+        <v>278</v>
+      </c>
+      <c r="C218">
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C219">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C220">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
-      </c>
-      <c r="C221" s="1">
-        <v>201</v>
+        <v>281</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B222" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C222">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B223" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C223">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
-      </c>
-      <c r="C224" s="1">
-        <v>104</v>
+        <v>284</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -24780,10 +24886,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C226">
         <v>11</v>
@@ -24791,10 +24897,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B227" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -24802,65 +24908,65 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
-      </c>
-      <c r="C228" s="1">
-        <v>105</v>
+        <v>288</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="B229" t="s">
-        <v>236</v>
-      </c>
-      <c r="C229" s="1">
-        <v>18</v>
+        <v>289</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>395</v>
-      </c>
-      <c r="C230" s="1">
-        <v>103</v>
+        <v>290</v>
+      </c>
+      <c r="C230">
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
-      </c>
-      <c r="C231" s="1">
-        <v>212</v>
+        <v>291</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
-      </c>
-      <c r="C232" s="1">
-        <v>108</v>
+        <v>292</v>
+      </c>
+      <c r="C232">
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C233">
         <v>9</v>
@@ -24868,10 +24974,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C234">
         <v>11</v>
@@ -24879,272 +24985,294 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B235" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C235">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B236" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C236">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B237" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C237">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>289</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
-      </c>
-      <c r="C239" s="1">
-        <v>177</v>
+        <v>299</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="B240" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240" s="1">
-        <v>87</v>
+        <v>300</v>
+      </c>
+      <c r="C240">
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
-      </c>
-      <c r="C241" s="1">
-        <v>269</v>
+        <v>301</v>
+      </c>
+      <c r="C241">
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="B242" t="s">
-        <v>174</v>
-      </c>
-      <c r="C242" s="1">
-        <v>109</v>
+        <v>302</v>
+      </c>
+      <c r="C242">
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
-      </c>
-      <c r="C243" s="1">
-        <v>150</v>
+        <v>303</v>
+      </c>
+      <c r="C243">
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="B244" t="s">
-        <v>423</v>
-      </c>
-      <c r="C244" s="1">
-        <v>324</v>
+        <v>304</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B245" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C245">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B246" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C246">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
-      </c>
-      <c r="C247" s="1">
-        <v>249</v>
+        <v>307</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="B248" t="s">
-        <v>375</v>
-      </c>
-      <c r="C248" s="1">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="C248">
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
-      </c>
-      <c r="C249" s="1">
-        <v>151</v>
+        <v>309</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
-      </c>
-      <c r="C250" s="1">
-        <v>273</v>
+        <v>310</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
-      </c>
-      <c r="C251" s="1">
-        <v>323</v>
+        <v>311</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
-      </c>
-      <c r="C252" s="1">
-        <v>138</v>
+        <v>312</v>
+      </c>
+      <c r="C252">
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>311</v>
+        <v>407</v>
       </c>
       <c r="B253" t="s">
-        <v>389</v>
-      </c>
-      <c r="C253" s="1">
-        <v>268</v>
+        <v>313</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
-      </c>
-      <c r="C254" s="1">
-        <v>8</v>
+        <v>314</v>
+      </c>
+      <c r="C254">
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="B255" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="C255" s="1">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C256" s="1">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="C257" s="1">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="B258" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="C258" s="1">
-        <v>107</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>414</v>
+      </c>
+      <c r="B259" t="s">
+        <v>774</v>
+      </c>
+      <c r="C259" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>415</v>
+      </c>
+      <c r="B260" t="s">
+        <v>775</v>
+      </c>
+      <c r="C260" s="1">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1">
-    <sortState ref="A2:C258">
-      <sortCondition ref="B1"/>
+    <sortState ref="A2:C260">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="G339" sqref="G339"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:L315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="C319" sqref="C319"/>
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
